--- a/LCD/tables/materialProperties.xlsx
+++ b/LCD/tables/materialProperties.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\studium\TUM\BA\CE\data_handling\matlab_cad\CAD_Import\LCD\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD4E13A-F318-4D53-88EA-A3D29247588C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2DA37A-5E37-44B8-AAA8-74FEB732944A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{771BB527-4E60-458F-8AA6-7562ED57BE76}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="344">
   <si>
     <t>60Sn40Pb</t>
   </si>
@@ -1055,6 +1055,9 @@
   </si>
   <si>
     <t>PA</t>
+  </si>
+  <si>
+    <t>PE</t>
   </si>
 </sst>
 </file>
@@ -1440,8 +1443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A34BB1-BF76-4FB7-BB6C-F4266F0F7AB1}">
   <dimension ref="A1:S316"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q160" sqref="Q160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6838,7 +6841,7 @@
         <v>150</v>
       </c>
       <c r="J170" s="5" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
@@ -6870,7 +6873,7 @@
         <v>180</v>
       </c>
       <c r="J171" s="5" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
